--- a/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
+++ b/InputData/web-app/CDCF/Cargo Dist Conversion Factors.xlsx
@@ -1,38 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04ef14839acedddd/Pós-graduação/3 - Projetos/projeto EPS/Variáveis feitas/Variáveis marianne FINAL/web-app/CDCF/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{C8A393C7-3BCF-44B5-A64C-01C8B7641EE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1D89FA24-3A0C-465E-B044-FD775BD6052E}"/>
   <bookViews>
-    <workbookView xWindow="-19308" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="19140" windowHeight="7090"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CDCF-PMpPDOU" sheetId="2" r:id="rId2"/>
     <sheet name="CDCF-FTMpFDOU" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Source:</t>
   </si>
@@ -77,24 +61,12 @@
   </si>
   <si>
     <t>CDCF Freight Ton Miles per Freight Distance Output Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes on the Brazilian adaptation </t>
-  </si>
-  <si>
-    <t>We assumed, for the Brazilian model:</t>
-  </si>
-  <si>
-    <t>trillion passenger-km</t>
-  </si>
-  <si>
-    <t>trillion freight ton-km</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,18 +84,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,15 +104,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,15 +121,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -207,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,26 +201,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,23 +236,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,26 +411,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,61 +436,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -576,34 +478,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
-        <f>1.609*10^12</f>
-        <v>1609000000000</v>
+        <f>10^12</f>
+        <v>1000000000000</v>
       </c>
     </row>
   </sheetData>
@@ -612,34 +512,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
       <c r="B2">
-        <f>1.609*10^12</f>
-        <v>1609000000000</v>
+        <f>10^12</f>
+        <v>1000000000000</v>
       </c>
     </row>
   </sheetData>
